--- a/exports/L157-tok-result-csv.xlsx
+++ b/exports/L157-tok-result-csv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7810E13-3EB6-5F4F-A6F0-DEB6F8243A9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF1614-5A7C-8449-804A-69C18BAD0769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{62090EA7-0B52-5943-BBAD-2BCC065FF575}"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="21480" windowHeight="17040" xr2:uid="{62090EA7-0B52-5943-BBAD-2BCC065FF575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="L157_tok_result_csv" localSheetId="0">Sheet1!$A$1:$P$160</definedName>
+    <definedName name="L157_tok_result_csv" localSheetId="0">Sheet1!$A$1:$P$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="373">
   <si>
     <t>Orth</t>
   </si>
@@ -540,9 +540,6 @@
     <t>kue nivi</t>
   </si>
   <si>
-    <t>the people</t>
-  </si>
-  <si>
     <t>the people of the town</t>
   </si>
   <si>
@@ -1165,13 +1162,25 @@
   </si>
   <si>
     <t>kue nivi ñuu</t>
+  </si>
+  <si>
+    <t>full lemma?</t>
+  </si>
+  <si>
+    <t>othe uses ?</t>
+  </si>
+  <si>
+    <t>another sense of "all"</t>
+  </si>
+  <si>
+    <t>note phrase structure!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1183,6 +1192,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1217,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,6 +1259,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD952F0E-6828-6645-B525-5C7819CECE02}">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,46 +1701,61 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1765,23 +1819,33 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1805,46 +1869,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1908,43 +1987,59 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1993,13 +2088,13 @@
     </row>
     <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>87</v>
@@ -2011,1344 +2106,1535 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="F21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="I21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>142</v>
+        <v>161</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>163</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="O24" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>351</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>209</v>
+        <v>353</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" t="s">
         <v>165</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>166</v>
-      </c>
-      <c r="O30" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>215</v>
+        <v>359</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="N32" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" t="s">
-        <v>122</v>
-      </c>
-      <c r="O33" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="N35" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="O35" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N37" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N38" t="s">
-        <v>93</v>
-      </c>
-      <c r="O38" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="N40" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" t="s">
-        <v>71</v>
-      </c>
-      <c r="O41" t="s">
-        <v>72</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>53</v>
+        <v>250</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N43" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>246</v>
+        <v>190</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>61</v>
+        <v>201</v>
+      </c>
+      <c r="N44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O44" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N46" t="s">
-        <v>203</v>
-      </c>
-      <c r="O46" t="s">
-        <v>204</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>44</v>
+        <v>257</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>45</v>
+        <v>258</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O47" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="O48" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="N49" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N51" t="s">
-        <v>203</v>
-      </c>
-      <c r="O51" t="s">
-        <v>204</v>
+    <row r="50" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N52" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="N53" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="O53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>61</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="N56" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N59" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="O59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="N61" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="O61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N63" t="s">
-        <v>116</v>
-      </c>
-      <c r="O63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N64" t="s">
-        <v>116</v>
-      </c>
-      <c r="O64" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="N65" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="O65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N66" t="s">
-        <v>166</v>
-      </c>
-      <c r="O66" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="N68" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N69" t="s">
-        <v>88</v>
-      </c>
-      <c r="O69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>76</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>277</v>
+        <v>60</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N71" t="s">
-        <v>82</v>
-      </c>
-      <c r="O71" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N72" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="O72" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N73" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N74" t="s">
-        <v>122</v>
-      </c>
-      <c r="O74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N75" t="s">
-        <v>50</v>
-      </c>
-      <c r="O75" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N76" t="s">
-        <v>50</v>
-      </c>
-      <c r="O76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N77" t="s">
-        <v>50</v>
-      </c>
-      <c r="O77" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="M78" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N84" t="s">
         <v>24</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O84" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N79" t="s">
-        <v>24</v>
-      </c>
-      <c r="O79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N80" t="s">
-        <v>56</v>
-      </c>
-      <c r="O80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N81" t="s">
-        <v>203</v>
-      </c>
-      <c r="O81" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N82" t="s">
-        <v>203</v>
-      </c>
-      <c r="O82" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N83" t="s">
-        <v>93</v>
-      </c>
-      <c r="O83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="N85" t="s">
+        <v>30</v>
+      </c>
+      <c r="O85" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="N86" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O86" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>225</v>
+        <v>366</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>40</v>
@@ -3360,207 +3646,276 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>225</v>
+        <v>347</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>226</v>
+        <v>348</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="N88" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O88" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="N90" t="s">
+        <v>82</v>
+      </c>
+      <c r="O90" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="N91" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="O91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="N93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N94" t="s">
-        <v>203</v>
-      </c>
-      <c r="O94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>222</v>
+        <v>194</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="N96" t="s">
+        <v>197</v>
+      </c>
+      <c r="O96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="N97" t="s">
+        <v>197</v>
+      </c>
+      <c r="O97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G99" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I99" s="4" t="s">
         <v>69</v>
       </c>
       <c r="M99" s="4" t="s">
@@ -3573,506 +3928,572 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N100" t="s">
-        <v>24</v>
-      </c>
-      <c r="O100" t="s">
-        <v>25</v>
+    <row r="100" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N101" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O101" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N102" t="s">
-        <v>50</v>
-      </c>
-      <c r="O102" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N103" t="s">
-        <v>41</v>
-      </c>
-      <c r="O103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N104" t="s">
-        <v>93</v>
-      </c>
-      <c r="O104" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="N105" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="O105" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N106" t="s">
-        <v>82</v>
-      </c>
-      <c r="O106" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="N107" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="O107" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N108" t="s">
-        <v>82</v>
-      </c>
-      <c r="O108" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N109" t="s">
-        <v>82</v>
-      </c>
-      <c r="O109" t="s">
-        <v>83</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="7" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>182</v>
+        <v>330</v>
       </c>
       <c r="H110" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N110" t="s">
+        <v>93</v>
+      </c>
+      <c r="O110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="C111" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N111" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N111" t="s">
-        <v>56</v>
-      </c>
-      <c r="O111" t="s">
+      <c r="O111" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>308</v>
+        <v>183</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="N112" t="s">
+        <v>56</v>
+      </c>
+      <c r="O112" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="N113" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="O113" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N114" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="N115" t="s">
-        <v>198</v>
-      </c>
-      <c r="O115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N116" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O116" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>67</v>
+        <v>336</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N117" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="O117" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>313</v>
+        <v>336</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="N118" t="s">
+        <v>122</v>
+      </c>
+      <c r="O118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>314</v>
+        <v>336</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>315</v>
+        <v>337</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="N119" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="N120" t="s">
+        <v>30</v>
+      </c>
+      <c r="O120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>76</v>
+        <v>121</v>
+      </c>
+      <c r="N122" t="s">
+        <v>122</v>
+      </c>
+      <c r="O122" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="N123" t="s">
+        <v>88</v>
+      </c>
+      <c r="O123" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>318</v>
+        <v>84</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="N124" t="s">
+        <v>93</v>
+      </c>
+      <c r="O124" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>319</v>
+        <v>84</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M125" s="4" t="s">
         <v>35</v>
@@ -4086,691 +4507,273 @@
     </row>
     <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N126" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="O126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>323</v>
+        <v>90</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>324</v>
+        <v>346</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="N127" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="O127" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="85" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N128" t="s">
-        <v>18</v>
-      </c>
-      <c r="O128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="M129" s="4" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="N130" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N131" t="s">
-        <v>56</v>
-      </c>
-      <c r="O131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N132" t="s">
-        <v>56</v>
-      </c>
-      <c r="O132" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N131" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N132" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O132" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E133" s="4" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="N133" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="O133" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E134" s="4" t="s">
-        <v>334</v>
+        <v>136</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="N134" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="O134" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>242</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="C135" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N135" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O135" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E136" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N136" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="M137" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N137" t="s">
-        <v>50</v>
-      </c>
-      <c r="O137" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N138" t="s">
-        <v>122</v>
-      </c>
-      <c r="O138" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="M139" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N139" t="s">
-        <v>93</v>
-      </c>
-      <c r="O139" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="M140" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N140" t="s">
-        <v>30</v>
-      </c>
-      <c r="O140" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M141" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N141" t="s">
-        <v>122</v>
-      </c>
-      <c r="O141" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M142" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N142" t="s">
-        <v>122</v>
-      </c>
-      <c r="O142" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M143" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N143" t="s">
-        <v>88</v>
-      </c>
-      <c r="O143" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N144" t="s">
-        <v>93</v>
-      </c>
-      <c r="O144" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N145" t="s">
-        <v>36</v>
-      </c>
-      <c r="O145" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="M146" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N146" t="s">
-        <v>71</v>
-      </c>
-      <c r="O146" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="M147" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N147" t="s">
-        <v>93</v>
-      </c>
-      <c r="O147" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M148" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N148" t="s">
-        <v>71</v>
-      </c>
-      <c r="O148" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M149" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N149" t="s">
-        <v>41</v>
-      </c>
-      <c r="O149" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M150" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N150" t="s">
-        <v>30</v>
-      </c>
-      <c r="O150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M151" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N151" t="s">
-        <v>30</v>
-      </c>
-      <c r="O151" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M152" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N152" t="s">
-        <v>36</v>
-      </c>
-      <c r="O152" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="E153" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M153" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N153" t="s">
-        <v>24</v>
-      </c>
-      <c r="O153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="E154" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M154" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N154" t="s">
-        <v>24</v>
-      </c>
-      <c r="O154" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="C155" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M155" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N155" t="s">
-        <v>50</v>
-      </c>
-      <c r="O155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="E156" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M156" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N156" t="s">
-        <v>36</v>
-      </c>
-      <c r="O156" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="C157" s="4" t="s">
+    <row r="137" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+      <c r="C137" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="M157" s="4" t="s">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="C158" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="M158" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="C159" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M159" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N159" t="s">
-        <v>50</v>
-      </c>
-      <c r="O159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="E160" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M160" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N160" t="s">
-        <v>36</v>
-      </c>
-      <c r="O160" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:P160">
+  <sortState ref="A2:P137">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
